--- a/ブログ一覧_結合テスト.xlsx
+++ b/ブログ一覧_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6268DEDB-CB4A-439A-98A5-0A319AF79CF6}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7121D640-DA39-474B-A890-D9003BB9F2B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ一覧画面" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="130">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1171,56 +1171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウントが登録</t>
-    <rPh sb="5" eb="7">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>できませんでした。」の誤表記</t>
-    <rPh sb="11" eb="12">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録時にエラーが発生するとその</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間のID番号は表示されない。</t>
-    <rPh sb="0" eb="1">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューの「アカウント」押下後アカウント一覧画面に遷移するか</t>
     <rPh sb="12" eb="14">
       <t>オウカ</t>
@@ -1422,28 +1372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログ登録ボタン「＋」を押下後、ブログ登録画面に遷移するか</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.メニューの「ブログ」を押す</t>
     <rPh sb="13" eb="14">
       <t>オ</t>
@@ -1861,6 +1789,37 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ登録ボタン「＋」を押下後、ブログ登録画面に遷移するか（アカウント権限「管理者」の場合）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3076,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3088,7 +3047,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3101,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3128,12 +3087,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45999</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3174,16 +3133,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3196,7 +3155,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3212,16 +3171,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G10" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3234,7 +3193,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3247,7 +3206,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3263,16 +3222,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3285,7 +3244,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3298,7 +3257,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3314,16 +3273,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -3336,7 +3295,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
@@ -3352,16 +3311,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G18" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -3374,7 +3333,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -3390,16 +3349,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G20" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -3412,7 +3371,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -3425,7 +3384,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -3441,16 +3400,16 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -3463,7 +3422,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3479,23 +3438,21 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G25" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
@@ -3506,9 +3463,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
@@ -3519,16 +3474,16 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G27" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -3555,23 +3510,21 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G29" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
@@ -3581,14 +3534,12 @@
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
@@ -3596,7 +3547,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3612,16 +3563,16 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G32" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -3656,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B8A9D-0B02-45CE-A6BA-A6221DF62C67}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3668,7 +3619,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3681,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3708,12 +3659,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45999</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3754,16 +3705,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3790,19 +3741,19 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G10" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -3814,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3827,7 +3778,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3843,16 +3794,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3879,16 +3830,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
   </sheetData>

--- a/ブログ一覧_結合テスト.xlsx
+++ b/ブログ一覧_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7121D640-DA39-474B-A890-D9003BB9F2B6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95A5A54-E520-4CBD-8FDD-8A2D6CC83023}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ一覧画面" sheetId="1" r:id="rId1"/>
@@ -1731,16 +1731,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「エラーが発生したためブログ情報画面が閲覧できません。」の表示</t>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.削除されたidでアクセスする</t>
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
@@ -1820,6 +1810,19 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためブログ情報が取得できません。」の表示</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3035,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3400,7 +3403,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
@@ -3519,10 +3522,10 @@
         <v>113</v>
       </c>
       <c r="G29" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>74</v>
+        <v>46007</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -3607,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B8A9D-0B02-45CE-A6BA-A6221DF62C67}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3708,7 +3711,7 @@
         <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>123</v>
@@ -3747,13 +3750,13 @@
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G10" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>74</v>
+        <v>46007</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -3830,13 +3833,13 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G15" s="4">
         <v>46002</v>
